--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -82,13 +82,13 @@
     <t xml:space="preserve">Anton Wegeström</t>
   </si>
   <si>
-    <t xml:space="preserve">Skitunge 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skitunge 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skitunge 3</t>
+    <t xml:space="preserve">Rasmus Wallin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anton Östman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob Österberg</t>
   </si>
   <si>
     <t xml:space="preserve">Ackumulerat:</t>
@@ -354,7 +354,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -490,7 +490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -519,11 +519,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="75468618"/>
-        <c:axId val="74176620"/>
+        <c:axId val="50560709"/>
+        <c:axId val="88434801"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75468618"/>
+        <c:axId val="50560709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74176620"/>
+        <c:crossAx val="88434801"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74176620"/>
+        <c:axId val="88434801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75468618"/>
+        <c:crossAx val="50560709"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -815,7 +815,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,7 +887,7 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +910,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,21 +948,33 @@
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -970,7 +982,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,17 +1158,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Skitunge 1</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Skitunge 2</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Skitunge 3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,17 +1241,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Skitunge 1</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Skitunge 2</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Skitunge 3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,17 +1324,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Skitunge 1</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Skitunge 2</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Skitunge 3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,17 +1410,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Skitunge 1</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Skitunge 2</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Skitunge 3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,17 +1493,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Skitunge 1</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Skitunge 2</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Skitunge 3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,17 +1576,17 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Skitunge 1</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Skitunge 2</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Skitunge 3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
   <si>
-    <t xml:space="preserve">Projekttitel</t>
+    <t xml:space="preserve">4ss-teroids</t>
   </si>
   <si>
     <t xml:space="preserve">Namn</t>
@@ -43,16 +43,16 @@
     <t xml:space="preserve">Planering/fördelning</t>
   </si>
   <si>
-    <t xml:space="preserve">Namn Namnsson1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namn Namnsson2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namn Namnsson3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namn Namnsson4</t>
+    <t xml:space="preserve">Anton Wegeström</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasmus Wallin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob Österberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anton Östman</t>
   </si>
   <si>
     <t xml:space="preserve">Ändra namn på filen, Tidrapport_GrXY, så att XY motsvarar gruppnummer.</t>
@@ -70,25 +70,10 @@
     <t xml:space="preserve">Gör upp en enkel planering/fördelning av projektarbetet</t>
   </si>
   <si>
-    <t xml:space="preserve">4ss-teroids</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arbetad tid</t>
   </si>
   <si>
     <t xml:space="preserve">Kommentar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton Wegeström</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasmus Wallin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton Östman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakob Österberg</t>
   </si>
   <si>
     <t xml:space="preserve">Ackumulerat:</t>
@@ -149,10 +134,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,6 +183,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -261,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,7 +271,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,7 +351,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -490,7 +487,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -519,11 +516,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="50560709"/>
-        <c:axId val="88434801"/>
+        <c:axId val="69042597"/>
+        <c:axId val="19094544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50560709"/>
+        <c:axId val="69042597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88434801"/>
+        <c:crossAx val="19094544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88434801"/>
+        <c:axId val="19094544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +599,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50560709"/>
+        <c:crossAx val="69042597"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -697,7 +694,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,9 +703,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -829,7 +829,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -838,7 +838,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -847,7 +847,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -856,7 +856,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -865,7 +865,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -874,7 +874,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -883,11 +883,11 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -909,15 +909,14 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,11 +924,13 @@
         <f aca="false">Plan!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="4" t="n">
+        <f aca="false">Plan!B1</f>
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
+      <c r="C1" s="1" t="str">
+        <f aca="false">Plan!C1</f>
+        <v>4ss-teroids</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,81 +939,73 @@
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="str">
+        <f aca="false">Plan!A3</f>
+        <v>Anton Wegeström</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="false">Plan!A4</f>
+        <v>Rasmus Wallin</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <f aca="false">Plan!A5</f>
+        <v>Jakob Österberg</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="false">Plan!A6</f>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1027,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1043,14 +1036,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="str">
         <f aca="false">Plan!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
+      <c r="B1" s="4" t="n">
+        <f aca="false">Plan!B1</f>
+        <v>34</v>
+      </c>
       <c r="C1" s="1" t="str">
         <f aca="false">Plan!C1</f>
-        <v>Projekttitel</v>
+        <v>4ss-teroids</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,22 +1067,22 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false" t="array" ref="A3:A6">Plan!A3:A6</f>
-        <v>Namn Namnsson1</v>
+        <v>Anton Wegeström</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
-        <v>Namn Namnsson2</v>
+        <v>Rasmus Wallin</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Namn Namnsson3</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Namn Namnsson4</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1126,10 +1123,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="str">
         <f aca="false">v13!A1</f>
         <v>Tidrapport Grupp XY</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <f aca="false">Plan!B1</f>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
         <f aca="false">v13!C1</f>
@@ -1163,12 +1164,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Anton Östman</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Jakob Österberg</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,12 +1247,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Anton Östman</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Jakob Österberg</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,12 +1330,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Anton Östman</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Jakob Österberg</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,8 +1347,8 @@
         <f aca="false">SUM(B3:B6)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1415,12 +1416,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Anton Östman</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Jakob Österberg</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,12 +1499,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Anton Östman</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Jakob Österberg</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,12 +1582,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
-        <v>Anton Östman</v>
+        <v>Jakob Österberg</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
-        <v>Jakob Österberg</v>
+        <v>Anton Östman</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,8 +1599,8 @@
         <f aca="false">SUM(B3:B6)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -46,13 +46,25 @@
     <t xml:space="preserve">Anton Wegeström</t>
   </si>
   <si>
+    <t xml:space="preserve">IR1, IR2, PC, SP och dvv. Smågrejer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rasmus Wallin</t>
   </si>
   <si>
+    <t xml:space="preserve">Minnen och register</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jakob Österberg</t>
   </si>
   <si>
+    <t xml:space="preserve">VGA motor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anton Östman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU</t>
   </si>
   <si>
     <t xml:space="preserve">Ändra namn på filen, Tidrapport_GrXY, så att XY motsvarar gruppnummer.</t>
@@ -138,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,13 +195,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -271,11 +276,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,7 +356,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -516,11 +521,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="69042597"/>
-        <c:axId val="19094544"/>
+        <c:axId val="44937613"/>
+        <c:axId val="14896936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69042597"/>
+        <c:axId val="44937613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19094544"/>
+        <c:crossAx val="14896936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -560,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19094544"/>
+        <c:axId val="14896936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69042597"/>
+        <c:crossAx val="44937613"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -662,9 +667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -672,8 +677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3181680" y="457200"/>
-        <a:ext cx="4589640" cy="2628360"/>
+        <a:off x="3182400" y="457200"/>
+        <a:ext cx="4593600" cy="2628000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -693,11 +698,11 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -727,20 +732,32 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,27 +765,27 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +810,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -811,7 +828,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -820,7 +837,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -829,7 +846,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -838,7 +855,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -847,7 +864,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -856,7 +873,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -865,7 +882,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -874,7 +891,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -883,7 +900,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
@@ -913,7 +930,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -939,10 +956,10 @@
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,7 +988,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
@@ -980,32 +997,32 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1047,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1113,11 +1130,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1204,7 +1221,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1287,7 +1304,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1348,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1390,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1456,7 +1473,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1539,7 +1556,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1600,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -356,7 +356,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -492,7 +492,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -521,11 +521,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="44937613"/>
-        <c:axId val="14896936"/>
+        <c:axId val="24584332"/>
+        <c:axId val="54115456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44937613"/>
+        <c:axId val="24584332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14896936"/>
+        <c:crossAx val="54115456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14896936"/>
+        <c:axId val="54115456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44937613"/>
+        <c:crossAx val="24584332"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,9 +667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -677,8 +677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3182400" y="457200"/>
-        <a:ext cx="4593600" cy="2628000"/>
+        <a:off x="3183120" y="457200"/>
+        <a:ext cx="4597560" cy="2627640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -698,11 +698,11 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -744,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -810,7 +810,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,7 +904,7 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -926,11 +926,11 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -967,24 +967,36 @@
         <f aca="false">Plan!A3</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Plan!A4</f>
         <v>Rasmus Wallin</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <f aca="false">Plan!A5</f>
         <v>Jakob Österberg</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <f aca="false">Plan!A6</f>
         <v>Anton Östman</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -992,7 +1004,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1059,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1134,7 +1146,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1221,7 +1233,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1304,7 +1316,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1390,7 +1402,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1473,7 +1485,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1556,7 +1568,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -356,7 +356,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -492,7 +492,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -521,11 +521,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="24584332"/>
-        <c:axId val="54115456"/>
+        <c:axId val="47413222"/>
+        <c:axId val="76543018"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24584332"/>
+        <c:axId val="47413222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54115456"/>
+        <c:crossAx val="76543018"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54115456"/>
+        <c:axId val="76543018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24584332"/>
+        <c:crossAx val="47413222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,9 +667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -677,8 +677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3183120" y="457200"/>
-        <a:ext cx="4597560" cy="2627640"/>
+        <a:off x="3184200" y="457200"/>
+        <a:ext cx="4606560" cy="2627280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -702,7 +702,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -810,7 +810,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,7 +904,7 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -968,7 +968,7 @@
         <v>Anton Wegeström</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,7 +977,7 @@
         <v>Rasmus Wallin</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +986,7 @@
         <v>Jakob Österberg</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,7 +995,7 @@
         <v>Anton Östman</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1059,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1146,7 +1146,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1233,7 +1233,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1316,7 +1316,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1402,7 +1402,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1485,7 +1485,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1568,7 +1568,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -492,7 +492,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -521,11 +521,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="47413222"/>
-        <c:axId val="76543018"/>
+        <c:axId val="96356312"/>
+        <c:axId val="38458742"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47413222"/>
+        <c:axId val="96356312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76543018"/>
+        <c:crossAx val="38458742"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76543018"/>
+        <c:axId val="38458742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47413222"/>
+        <c:crossAx val="96356312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,9 +667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -677,8 +677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3184200" y="457200"/>
-        <a:ext cx="4606560" cy="2627280"/>
+        <a:off x="3184920" y="457200"/>
+        <a:ext cx="4610520" cy="2626920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -702,7 +702,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -810,7 +810,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
-        <v>47</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,7 +904,7 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>47</v>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -968,7 +968,7 @@
         <v>Anton Wegeström</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,7 +977,7 @@
         <v>Rasmus Wallin</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +986,7 @@
         <v>Jakob Österberg</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,7 +995,7 @@
         <v>Anton Östman</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>47</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1059,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1146,7 +1146,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1233,7 +1233,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1316,7 +1316,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1402,7 +1402,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1485,7 +1485,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1568,7 +1568,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files (x86)\Downloads Disk G\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AD8DF-3E9B-4B3F-A784-6F6D83385D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="36135" yWindow="3030" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="v13" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="v14" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="v15" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="v16" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="v17" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="v18" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="v19" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="v20" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="graf" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="v13" sheetId="2" r:id="rId2"/>
+    <sheet name="v14" sheetId="3" r:id="rId3"/>
+    <sheet name="v15" sheetId="4" r:id="rId4"/>
+    <sheet name="v16" sheetId="5" r:id="rId5"/>
+    <sheet name="v17" sheetId="6" r:id="rId6"/>
+    <sheet name="v18" sheetId="7" r:id="rId7"/>
+    <sheet name="v19" sheetId="8" r:id="rId8"/>
+    <sheet name="v20" sheetId="9" r:id="rId9"/>
+    <sheet name="graf" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,128 +44,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t xml:space="preserve">Tidrapport Grupp XY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ss-teroids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planering/fördelning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton Wegeström</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR1, IR2, PC, SP och dvv. Smågrejer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasmus Wallin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnen och register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakob Österberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGA motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton Östman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ändra namn på filen, Tidrapport_GrXY, så att XY motsvarar gruppnummer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppdatera filen varje vecka och spara den tillsammans med övrig dokumentation i Gitlab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ändra rubriken, endast gruppnummer (XY), och person-namn i denna flik, så uppdateras det automatiskt på övriga flikar (veckor).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ändra projekttitel till något som beskriver projektet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gör upp en enkel planering/fördelning av projektarbetet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbetad tid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommentar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ackumulerat:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fyll i arbetade timmar för aktuell vecka, senast måndag kl 16 efterföljande vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skriv en kort kommentar som sammanfattar veckans arbete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektet pågår v13-v19 (7 veckor), med redovisning v20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektarbetet motsvarar ca 105 timmar per student för hela projektet, dvs ca 15 timmar per vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">För en grupp om 4 blir det totalt 420 timmar, dvs ca 60 timmar per vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">För en grupp om 3 blir det totalt 315 timmar, dvs ca 45 timmar per vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milstolpe ~måndag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redovisning!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ack:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Tidrapport Grupp XY</t>
+  </si>
+  <si>
+    <t>4ss-teroids</t>
+  </si>
+  <si>
+    <t>Namn</t>
+  </si>
+  <si>
+    <t>Planering/fördelning</t>
+  </si>
+  <si>
+    <t>Anton Wegeström</t>
+  </si>
+  <si>
+    <t>IR1, IR2, PC, SP och dvv. Smågrejer</t>
+  </si>
+  <si>
+    <t>Rasmus Wallin</t>
+  </si>
+  <si>
+    <t>Minnen och register</t>
+  </si>
+  <si>
+    <t>Jakob Österberg</t>
+  </si>
+  <si>
+    <t>VGA motor</t>
+  </si>
+  <si>
+    <t>Anton Östman</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>Ändra namn på filen, Tidrapport_GrXY, så att XY motsvarar gruppnummer.</t>
+  </si>
+  <si>
+    <t>Uppdatera filen varje vecka och spara den tillsammans med övrig dokumentation i Gitlab.</t>
+  </si>
+  <si>
+    <t>Ändra rubriken, endast gruppnummer (XY), och person-namn i denna flik, så uppdateras det automatiskt på övriga flikar (veckor).</t>
+  </si>
+  <si>
+    <t>Ändra projekttitel till något som beskriver projektet</t>
+  </si>
+  <si>
+    <t>Gör upp en enkel planering/fördelning av projektarbetet</t>
+  </si>
+  <si>
+    <t>Arbetad tid</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Ackumulerat:</t>
+  </si>
+  <si>
+    <t>Fyll i arbetade timmar för aktuell vecka, senast måndag kl 16 efterföljande vecka.</t>
+  </si>
+  <si>
+    <t>Skriv en kort kommentar som sammanfattar veckans arbete.</t>
+  </si>
+  <si>
+    <t>Projektet pågår v13-v19 (7 veckor), med redovisning v20.</t>
+  </si>
+  <si>
+    <t>Projektarbetet motsvarar ca 105 timmar per student för hela projektet, dvs ca 15 timmar per vecka.</t>
+  </si>
+  <si>
+    <t>För en grupp om 4 blir det totalt 420 timmar, dvs ca 60 timmar per vecka.</t>
+  </si>
+  <si>
+    <t>För en grupp om 3 blir det totalt 315 timmar, dvs ca 45 timmar per vecka.</t>
+  </si>
+  <si>
+    <t>Milstolpe ~måndag</t>
+  </si>
+  <si>
+    <t>Redovisning!</t>
+  </si>
+  <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t>v14</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>v16</t>
+  </si>
+  <si>
+    <t>v17</t>
+  </si>
+  <si>
+    <t>v18</t>
+  </si>
+  <si>
+    <t>v19</t>
+  </si>
+  <si>
+    <t>v20</t>
+  </si>
+  <si>
+    <t>Ack:</t>
+  </si>
+  <si>
+    <t>Jobbat med ALU och fått den att kompilera, nu ska den testas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,22 +173,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -182,7 +181,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -197,24 +196,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +213,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -234,65 +221,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -351,15 +295,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF444444"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -368,7 +330,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -376,7 +338,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -397,6 +359,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -405,19 +368,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Veckor"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Veckor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Veckor</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -425,18 +380,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -445,8 +408,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -492,7 +456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>62.5</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -518,7 +482,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F83-404E-98CA-E6DCD02430F5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="96356312"/>
@@ -538,7 +515,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -548,13 +525,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38458742"/>
@@ -575,7 +553,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -595,13 +573,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96356312"/>
@@ -629,35 +608,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -671,14 +657,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3184920" y="457200"/>
-        <a:ext cx="4610520" cy="2626920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -691,35 +683,327 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -728,231 +1012,215 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">v13!B8</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <f>'v13'!B8</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">v14!B8</f>
+      <c r="B3">
+        <f>'v14'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">v15!B8</f>
+      <c r="B4">
+        <f>'v15'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">v16!B8</f>
+      <c r="B5">
+        <f>'v16'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">v17!B8</f>
+      <c r="B6">
+        <f>'v17'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">v18!B8</f>
+      <c r="B7">
+        <f>'v18'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">v19!B8</f>
+      <c r="B8">
+        <f>'v19'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">v20!B8</f>
+      <c r="B9">
+        <f>'v20'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">SUM(B2:B9)</f>
-        <v>62.5</v>
+      <c r="B11">
+        <f>SUM(B2:B9)</f>
+        <v>65.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">Plan!A1</f>
+        <f>Plan!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="4" t="n">
-        <f aca="false">Plan!B1</f>
+      <c r="B1" s="4">
+        <f>Plan!B1</f>
         <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">Plan!C1</f>
+        <f>Plan!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">Plan!A2</f>
+        <f>Plan!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -962,418 +1230,389 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false">Plan!A3</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Plan!A3</f>
         <v>Anton Wegeström</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
-        <f aca="false">Plan!A4</f>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Plan!A4</f>
         <v>Rasmus Wallin</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
-        <f aca="false">Plan!A5</f>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Plan!A5</f>
         <v>Jakob Österberg</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
-        <f aca="false">Plan!A6</f>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Plan!A6</f>
         <v>Anton Östman</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>16.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">Plan!A1</f>
+        <f>Plan!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="4" t="n">
-        <f aca="false">Plan!B1</f>
+      <c r="B1" s="4">
+        <f>Plan!B1</f>
         <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">Plan!C1</f>
+        <f>Plan!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">Plan!A2</f>
+        <f>Plan!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">Plan!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">Plan!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="4" t="n">
-        <f aca="false">Plan!B1</f>
+      <c r="B1" s="4">
+        <f>Plan!B1</f>
         <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1381,251 +1620,227 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1633,209 +1848,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E0DF282E04F2B4D97115379C8106E03" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe08f1e37f7fce1f5c511e947f065d4d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea4a64d1-8601-4845-a16c-2eee1eef753c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b6d275d5266b603c04fb10332213760" ns2:_="">
-    <xsd:import namespace="ea4a64d1-8601-4845-a16c-2eee1eef753c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ea4a64d1-8601-4845-a16c-2eee1eef753c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA230E2-789A-480D-822A-4772227DB46A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{220E97DE-E3E7-481E-84CF-775D0B9CF072}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74DA5ECC-DCAA-45FC-8E40-8A8F904AF147}"/>
 </file>
--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\projekt\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99462478-3151-4083-BF1A-85A9C4193ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="3405" yWindow="2040" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="v13" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="v14" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="v15" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="v16" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="v17" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="v18" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="v19" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="v20" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="graf" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="v13" sheetId="2" r:id="rId2"/>
+    <sheet name="v14" sheetId="3" r:id="rId3"/>
+    <sheet name="v15" sheetId="4" r:id="rId4"/>
+    <sheet name="v16" sheetId="5" r:id="rId5"/>
+    <sheet name="v17" sheetId="6" r:id="rId6"/>
+    <sheet name="v18" sheetId="7" r:id="rId7"/>
+    <sheet name="v19" sheetId="8" r:id="rId8"/>
+    <sheet name="v20" sheetId="9" r:id="rId9"/>
+    <sheet name="graf" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,130 +44,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">Tidrapport Grupp XY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ss-teroids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planering/fördelning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton Wegeström</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR1, IR2, PC, SP och dvv. Smågrejer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasmus Wallin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnen och register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakob Österberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGA motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton Östman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ändra namn på filen, Tidrapport_GrXY, så att XY motsvarar gruppnummer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppdatera filen varje vecka och spara den tillsammans med övrig dokumentation i Gitlab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ändra rubriken, endast gruppnummer (XY), och person-namn i denna flik, så uppdateras det automatiskt på övriga flikar (veckor).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ändra projekttitel till något som beskriver projektet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gör upp en enkel planering/fördelning av projektarbetet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbetad tid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommentar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobbat med ALU och fått den att kompilera, nu ska den testas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ackumulerat:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fyll i arbetade timmar för aktuell vecka, senast måndag kl 16 efterföljande vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skriv en kort kommentar som sammanfattar veckans arbete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektet pågår v13-v19 (7 veckor), med redovisning v20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektarbetet motsvarar ca 105 timmar per student för hela projektet, dvs ca 15 timmar per vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">För en grupp om 4 blir det totalt 420 timmar, dvs ca 60 timmar per vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">För en grupp om 3 blir det totalt 315 timmar, dvs ca 45 timmar per vecka.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milstolpe ~måndag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redovisning!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ack:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+  <si>
+    <t>Tidrapport Grupp XY</t>
+  </si>
+  <si>
+    <t>4ss-teroids</t>
+  </si>
+  <si>
+    <t>Namn</t>
+  </si>
+  <si>
+    <t>Planering/fördelning</t>
+  </si>
+  <si>
+    <t>Anton Wegeström</t>
+  </si>
+  <si>
+    <t>IR1, IR2, PC, SP och dvv. Smågrejer</t>
+  </si>
+  <si>
+    <t>Rasmus Wallin</t>
+  </si>
+  <si>
+    <t>Minnen och register</t>
+  </si>
+  <si>
+    <t>Jakob Österberg</t>
+  </si>
+  <si>
+    <t>VGA motor</t>
+  </si>
+  <si>
+    <t>Anton Östman</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>Ändra namn på filen, Tidrapport_GrXY, så att XY motsvarar gruppnummer.</t>
+  </si>
+  <si>
+    <t>Uppdatera filen varje vecka och spara den tillsammans med övrig dokumentation i Gitlab.</t>
+  </si>
+  <si>
+    <t>Ändra rubriken, endast gruppnummer (XY), och person-namn i denna flik, så uppdateras det automatiskt på övriga flikar (veckor).</t>
+  </si>
+  <si>
+    <t>Ändra projekttitel till något som beskriver projektet</t>
+  </si>
+  <si>
+    <t>Gör upp en enkel planering/fördelning av projektarbetet</t>
+  </si>
+  <si>
+    <t>Arbetad tid</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Jobbat med ALU och fått den att kompilera, nu ska den testas.</t>
+  </si>
+  <si>
+    <t>Ackumulerat:</t>
+  </si>
+  <si>
+    <t>Fyll i arbetade timmar för aktuell vecka, senast måndag kl 16 efterföljande vecka.</t>
+  </si>
+  <si>
+    <t>Skriv en kort kommentar som sammanfattar veckans arbete.</t>
+  </si>
+  <si>
+    <t>Projektet pågår v13-v19 (7 veckor), med redovisning v20.</t>
+  </si>
+  <si>
+    <t>Projektarbetet motsvarar ca 105 timmar per student för hela projektet, dvs ca 15 timmar per vecka.</t>
+  </si>
+  <si>
+    <t>För en grupp om 4 blir det totalt 420 timmar, dvs ca 60 timmar per vecka.</t>
+  </si>
+  <si>
+    <t>För en grupp om 3 blir det totalt 315 timmar, dvs ca 45 timmar per vecka.</t>
+  </si>
+  <si>
+    <t>Milstolpe ~måndag</t>
+  </si>
+  <si>
+    <t>Redovisning!</t>
+  </si>
+  <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t>v14</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>v16</t>
+  </si>
+  <si>
+    <t>v17</t>
+  </si>
+  <si>
+    <t>v18</t>
+  </si>
+  <si>
+    <t>v19</t>
+  </si>
+  <si>
+    <t>v20</t>
+  </si>
+  <si>
+    <t>Ack:</t>
+  </si>
+  <si>
+    <t>Testat och finaliserat ALU, börjat läsa om och jobba med joystick</t>
+  </si>
+  <si>
+    <t>~=14h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,22 +179,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -184,7 +187,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -199,24 +202,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,7 +219,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -236,65 +227,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -353,15 +301,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF444444"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -370,7 +336,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -378,7 +344,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -399,6 +365,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -407,19 +374,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Veckor"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Veckor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Veckor</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -427,18 +386,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -447,8 +414,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -515,7 +488,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E88C-4284-BF2A-617BBBD6A213}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="52729871"/>
@@ -535,7 +521,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -545,13 +531,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="37517071"/>
@@ -572,7 +559,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -592,13 +579,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52729871"/>
@@ -626,35 +614,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -668,14 +663,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3184200" y="457200"/>
-        <a:ext cx="4605840" cy="2626560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -688,35 +689,327 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -725,231 +1018,215 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">v13!B8</f>
+      <c r="B2">
+        <f>'v13'!B8</f>
         <v>65.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">v14!B8</f>
+      <c r="B3">
+        <f>'v14'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">v15!B8</f>
+      <c r="B4">
+        <f>'v15'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">v16!B8</f>
+      <c r="B5">
+        <f>'v16'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">v17!B8</f>
+      <c r="B6">
+        <f>'v17'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">v18!B8</f>
+      <c r="B7">
+        <f>'v18'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">v19!B8</f>
+      <c r="B8">
+        <f>'v19'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">v20!B8</f>
+      <c r="B9">
+        <f>'v20'!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">SUM(B2:B9)</f>
+      <c r="B11">
+        <f>SUM(B2:B9)</f>
         <v>65.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">Plan!A1</f>
+        <f>Plan!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <f aca="false">Plan!B1</f>
+      <c r="B1" s="1">
+        <f>Plan!B1</f>
         <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">Plan!C1</f>
+        <f>Plan!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">Plan!A2</f>
+        <f>Plan!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -959,430 +1236,404 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false">Plan!A3</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Plan!A3</f>
         <v>Anton Wegeström</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>16.5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
-        <f aca="false">Plan!A4</f>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Plan!A4</f>
         <v>Rasmus Wallin</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>16.5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
-        <f aca="false">Plan!A5</f>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Plan!A5</f>
         <v>Jakob Österberg</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
-        <f aca="false">Plan!A6</f>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Plan!A6</f>
         <v>Anton Östman</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>16.5</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>65.5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">Plan!A1</f>
+        <f>Plan!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <f aca="false">Plan!B1</f>
+      <c r="B1" s="1">
+        <f>Plan!B1</f>
         <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">Plan!C1</f>
+        <f>Plan!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">Plan!A2</f>
+        <f>Plan!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">Plan!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">Plan!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <f aca="false">Plan!B1</f>
+      <c r="B1" s="1">
+        <f>Plan!B1</f>
         <v>34</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1390,251 +1641,227 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
+        <f>'v13'!A1</f>
         <v>Tidrapport Grupp XY</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
+        <f>'v13'!C1</f>
         <v>4ss-teroids</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
+        <f>'v13'!A2</f>
         <v>Namn</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
+        <f>'v13'!B2</f>
         <v>Arbetad tid</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
+        <f>'v13'!C2</f>
         <v>Kommentar</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="array" ref="A3:A6">'v13'!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
         <v>Rasmus Wallin</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <v>Jakob Österberg</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <v>Anton Östman</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
+        <f>'v13'!A8</f>
         <v>Ackumulerat:</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
+      <c r="B8">
+        <f>SUM(B3:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1642,12 +1869,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -288,12 +288,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -370,18 +370,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Arbetad tid</a:t>
@@ -390,12 +400,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -427,27 +431,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -492,7 +481,7 @@
                   <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -518,11 +507,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="52729871"/>
-        <c:axId val="37517071"/>
+        <c:axId val="32217905"/>
+        <c:axId val="15251866"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52729871"/>
+        <c:axId val="32217905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,27 +531,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37517071"/>
+        <c:crossAx val="15251866"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37517071"/>
+        <c:axId val="15251866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,21 +581,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52729871"/>
+        <c:crossAx val="32217905"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -621,20 +616,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -664,9 +645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -674,8 +655,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3184200" y="457200"/>
-        <a:ext cx="4605840" cy="2626560"/>
+        <a:off x="3184920" y="457200"/>
+        <a:ext cx="4609800" cy="2626200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -689,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -699,10 +680,11 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -807,10 +789,11 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +821,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,7 +884,7 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>65.5</v>
+        <v>79.5</v>
       </c>
     </row>
   </sheetData>
@@ -917,20 +900,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,20 +1042,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,6 +1092,9 @@
         <f aca="false" t="array" ref="A3:A6">Plan!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
@@ -1130,7 +1118,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1155,10 +1143,11 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1242,10 +1231,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1325,10 +1315,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1411,10 +1402,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1494,10 +1486,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1577,10 +1570,11 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">För en grupp om 3 blir det totalt 315 timmar, dvs ca 45 timmar per vecka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGA MOTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU &amp; joystick</t>
   </si>
   <si>
     <t xml:space="preserve">Milstolpe ~måndag</t>
@@ -363,7 +372,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -486,7 +495,7 @@
                   <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -512,11 +521,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="6861545"/>
-        <c:axId val="34661754"/>
+        <c:axId val="42403827"/>
+        <c:axId val="37859533"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6861545"/>
+        <c:axId val="42403827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,14 +561,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34661754"/>
+        <c:crossAx val="37859533"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34661754"/>
+        <c:axId val="37859533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +611,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6861545"/>
+        <c:crossAx val="42403827"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -650,9 +659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -661,7 +670,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3184920" y="457200"/>
-        <a:ext cx="4609440" cy="2625840"/>
+        <a:ext cx="4609080" cy="2625480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -813,7 +822,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -822,16 +831,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -840,7 +849,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -849,7 +858,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -858,7 +867,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -867,7 +876,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -876,7 +885,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -885,11 +894,11 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>79.5</v>
+        <v>121.5</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1063,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1100,20 +1109,41 @@
       <c r="B3" s="0" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <v>Rasmus Wallin</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <v>Jakob Österberg</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1153,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve">ALU &amp; joystick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degugging and testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joystick</t>
   </si>
   <si>
     <t xml:space="preserve">Milstolpe ~måndag</t>
@@ -302,12 +314,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -372,7 +384,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -388,11 +400,6 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
@@ -401,11 +408,6 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Arbetad tid</a:t>
@@ -414,6 +416,12 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -439,19 +447,36 @@
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -498,7 +523,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -521,17 +546,17 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="42403827"/>
-        <c:axId val="37859533"/>
+        <c:axId val="8607807"/>
+        <c:axId val="44689509"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42403827"/>
+        <c:axId val="8607807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -545,30 +570,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37859533"/>
+        <c:crossAx val="44689509"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37859533"/>
+        <c:axId val="44689509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,28 +617,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42403827"/>
+        <c:crossAx val="8607807"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -626,10 +645,21 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -659,9 +689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -670,7 +700,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3184920" y="457200"/>
-        <a:ext cx="4609080" cy="2625480"/>
+        <a:ext cx="4608720" cy="2625120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -684,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -694,11 +724,10 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,7 +813,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -793,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -803,11 +832,10 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,7 +850,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -831,7 +859,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -840,16 +868,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -858,7 +886,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -867,7 +895,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -876,7 +904,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -885,7 +913,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -894,17 +922,17 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>121.5</v>
+        <v>185.5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -914,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -924,11 +952,10 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1074,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1056,21 +1083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1185,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1168,21 +1194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,20 +1243,44 @@
         <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <v>Rasmus Wallin</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <v>Jakob Österberg</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,13 +1290,13 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1256,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1266,11 +1315,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1379,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1340,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1350,11 +1398,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1427,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1437,11 +1484,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,7 +1548,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1511,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1521,11 +1567,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,7 +1631,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1595,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1605,11 +1650,10 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve">Joystick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vga</t>
   </si>
   <si>
     <t xml:space="preserve">Milstolpe ~måndag</t>
@@ -418,7 +427,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -447,14 +456,14 @@
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -472,11 +481,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -526,7 +530,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -546,17 +550,17 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="8607807"/>
-        <c:axId val="44689509"/>
+        <c:axId val="7045113"/>
+        <c:axId val="78077698"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8607807"/>
+        <c:axId val="7045113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -582,7 +586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44689509"/>
+        <c:crossAx val="78077698"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -590,7 +594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44689509"/>
+        <c:axId val="78077698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,13 +633,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8607807"/>
+        <c:crossAx val="7045113"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -645,7 +649,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -689,9 +693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -699,8 +703,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3184920" y="457200"/>
-        <a:ext cx="4608720" cy="2625120"/>
+        <a:off x="3185640" y="457200"/>
+        <a:ext cx="4612680" cy="2624760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -724,7 +728,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -813,7 +817,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -832,7 +836,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -850,7 +854,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -859,7 +863,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -868,7 +872,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -877,16 +881,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -895,7 +899,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -904,7 +908,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -913,7 +917,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -922,17 +926,17 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>185.5</v>
+        <v>243.5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -952,7 +956,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1074,7 +1078,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1093,7 +1097,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1185,7 +1189,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1200,11 +1204,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1296,7 +1300,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1311,11 +1315,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1350,20 +1354,44 @@
         <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <v>Rasmus Wallin</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <v>Jakob Österberg</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,13 +1401,13 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1398,7 +1426,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1459,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1484,7 +1512,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1548,7 +1576,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1567,7 +1595,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1631,7 +1659,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1650,7 +1678,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1711,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subrutiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subrutiner + Kompilator</t>
   </si>
   <si>
     <t xml:space="preserve">Milstolpe ~måndag</t>
@@ -323,12 +329,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -409,6 +415,11 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
@@ -417,6 +428,11 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Arbetad tid</a:t>
@@ -425,12 +441,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -462,24 +472,12 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -533,7 +531,7 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -550,11 +548,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="7045113"/>
-        <c:axId val="78077698"/>
+        <c:axId val="64593663"/>
+        <c:axId val="77292387"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7045113"/>
+        <c:axId val="64593663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,27 +572,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78077698"/>
+        <c:crossAx val="77292387"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78077698"/>
+        <c:axId val="77292387"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,21 +622,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7045113"/>
+        <c:crossAx val="64593663"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -653,17 +657,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -693,9 +686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -703,8 +696,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3185640" y="457200"/>
-        <a:ext cx="4612680" cy="2624760"/>
+        <a:off x="3186360" y="457200"/>
+        <a:ext cx="4616640" cy="2624400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -718,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -728,10 +721,11 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,7 +820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -836,10 +830,11 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +849,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -863,7 +858,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -872,7 +867,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -881,7 +876,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -890,16 +885,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -908,7 +903,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -917,7 +912,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -926,11 +921,11 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>243.5</v>
+        <v>307.5</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -956,10 +951,11 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1097,10 +1093,11 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1208,10 +1205,11 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,20 +1307,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,20 +1415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,20 +1461,44 @@
         <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <v>Rasmus Wallin</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <v>Jakob Österberg</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,10 +1508,10 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1512,10 +1536,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1595,10 +1620,11 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1678,10 +1704,11 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t xml:space="preserve">Milstolpe ~måndag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobbade på spelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lite allt möjligt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spelet</t>
   </si>
   <si>
     <t xml:space="preserve">Redovisning!</t>
@@ -329,12 +338,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -415,11 +424,6 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
@@ -428,11 +432,6 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Arbetad tid</a:t>
@@ -441,6 +440,12 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -466,19 +471,36 @@
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -534,7 +556,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -548,17 +570,17 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="64593663"/>
-        <c:axId val="77292387"/>
+        <c:axId val="3226441"/>
+        <c:axId val="3939179"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64593663"/>
+        <c:axId val="3226441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -572,30 +594,27 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77292387"/>
+        <c:crossAx val="3939179"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77292387"/>
+        <c:axId val="3939179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,28 +641,25 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64593663"/>
+        <c:crossAx val="3226441"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -653,10 +669,21 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -686,9 +713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -697,7 +724,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3186360" y="457200"/>
-        <a:ext cx="4616640" cy="2624400"/>
+        <a:ext cx="4616280" cy="2624040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -711,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -721,11 +748,10 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,8 +836,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -820,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -830,11 +856,10 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +874,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -858,7 +883,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -867,7 +892,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -876,7 +901,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -885,7 +910,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -894,16 +919,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
@@ -912,7 +937,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
@@ -921,17 +946,17 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>307.5</v>
+        <v>375.5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -941,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -951,11 +976,10 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,8 +1097,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1083,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1093,11 +1117,10 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,8 +1208,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1195,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1205,11 +1228,10 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,8 +1319,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1307,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1317,11 +1339,10 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,8 +1426,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1415,21 +1436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,8 +1536,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1526,7 +1546,114 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="str">
+        <f aca="false">v13!A1</f>
+        <v>Tidrapport Grupp XY</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f aca="false">v13!C1</f>
+        <v>4ss-teroids</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="str">
+        <f aca="false">v13!A2</f>
+        <v>Namn</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f aca="false">v13!B2</f>
+        <v>Arbetad tid</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f aca="false">v13!C2</f>
+        <v>Kommentar</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="str">
+        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
+        <v>Anton Wegeström</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <v>Rasmus Wallin</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <v>Jakob Österberg</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="str">
+        <f aca="false">v13!A8</f>
+        <v>Ackumulerat:</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">SUM(B3:B6)</f>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1536,11 +1663,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,92 +1726,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="str">
-        <f aca="false">v13!A1</f>
-        <v>Tidrapport Grupp XY</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <f aca="false">v13!C1</f>
-        <v>4ss-teroids</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="str">
-        <f aca="false">v13!A2</f>
-        <v>Namn</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f aca="false">v13!B2</f>
-        <v>Arbetad tid</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f aca="false">v13!C2</f>
-        <v>Kommentar</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
-        <v>Anton Wegeström</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
-        <v>Rasmus Wallin</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
-        <v>Jakob Österberg</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
-        <v>Anton Östman</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="str">
-        <f aca="false">v13!A8</f>
-        <v>Ackumulerat:</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1694,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1704,11 +1746,10 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/Tidrapport_Gr34.xlsx
+++ b/doc/Tidrapport_Gr34.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t xml:space="preserve">Tidrapport Grupp XY</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapport</t>
   </si>
   <si>
     <t xml:space="preserve">Redovisning!</t>
@@ -559,10 +562,10 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,11 +573,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="3226441"/>
-        <c:axId val="3939179"/>
+        <c:axId val="83801393"/>
+        <c:axId val="52501266"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3226441"/>
+        <c:axId val="83801393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3939179"/>
+        <c:crossAx val="52501266"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3939179"/>
+        <c:axId val="52501266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +656,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3226441"/>
+        <c:crossAx val="83801393"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -713,9 +716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -723,8 +726,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3186360" y="457200"/>
-        <a:ext cx="4616280" cy="2624040"/>
+        <a:off x="3186720" y="457200"/>
+        <a:ext cx="4620600" cy="2623680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -748,7 +751,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -856,7 +859,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -874,7 +877,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">v13!B8</f>
@@ -883,7 +886,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">v14!B8</f>
@@ -892,7 +895,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">v15!B8</f>
@@ -901,7 +904,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">v16!B8</f>
@@ -910,7 +913,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">v17!B8</f>
@@ -919,7 +922,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">v18!B8</f>
@@ -928,29 +931,29 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">v19!B8</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">v20!B8</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">SUM(B2:B9)</f>
-        <v>375.5</v>
+        <v>455.5</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +979,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1117,7 +1120,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1228,7 +1231,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1339,7 +1342,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1446,7 +1449,7 @@
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1552,11 +1555,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1660,10 +1663,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1698,20 +1701,44 @@
         <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <v>Rasmus Wallin</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <v>Jakob Österberg</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,7 +1748,7 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1742,11 +1769,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1781,20 +1808,44 @@
         <f aca="false" t="array" ref="A3:A6">v13!A3:A6</f>
         <v>Anton Wegeström</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <v>Rasmus Wallin</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="str">
         <v>Jakob Österberg</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="str">
         <v>Anton Östman</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,10 +1855,10 @@
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
